--- a/data/georgia_census/racha/cageri/education_graduates.xlsx
+++ b/data/georgia_census/racha/cageri/education_graduates.xlsx
@@ -1850,13 +1850,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEFF3634-C5E4-4EC6-AD78-B05A4E7A94C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53BB80B-57AF-4769-BD34-6546C6493D10}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43C2775C-938D-4765-9466-64462C2D11A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8E9075-4354-4B10-B9CA-2D919D8DB02E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D18A08C9-AAFD-436C-82F4-1670620DCB9A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3F7AEA-86CF-4B15-A879-F3AC988B308D}"/>
 </file>